--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B479440-F91E-4A31-AE95-2A68F6D7E9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863DB9A-66F6-4FD8-9280-C897E42225BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2234,8 +2234,8 @@
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
+      <c r="C33" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2245,8 +2245,8 @@
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
+      <c r="C34" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863DB9A-66F6-4FD8-9280-C897E42225BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1295B373-201D-4022-8B69-B064C020546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2168,8 +2168,8 @@
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
+      <c r="C27" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21">
@@ -2256,8 +2256,8 @@
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
+      <c r="C35" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">
@@ -2322,8 +2322,8 @@
       <c r="B41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>4</v>
+      <c r="C41" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1295B373-201D-4022-8B69-B064C020546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E279D7-9F88-409D-814F-6BA8DD23EC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2091,8 +2091,8 @@
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
+      <c r="C20" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2868,8 +2868,8 @@
       <c r="B93" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>4</v>
+      <c r="C93" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="21">
@@ -3236,8 +3236,8 @@
       <c r="B128" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>4</v>
+      <c r="C128" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E279D7-9F88-409D-814F-6BA8DD23EC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59A4CA3-118F-4AFE-A148-A64BFC0E94FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2357,8 +2357,8 @@
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>4</v>
+      <c r="C45" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -3302,8 +3302,8 @@
       <c r="B134" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>4</v>
+      <c r="C134" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="21">
@@ -5060,8 +5060,8 @@
       <c r="B302" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C302" s="4" t="s">
-        <v>4</v>
+      <c r="C302" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59A4CA3-118F-4AFE-A148-A64BFC0E94FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BE884E-99A6-4BDE-AF38-85F8795AA2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2278,8 +2278,8 @@
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
+      <c r="C37" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21">
@@ -2615,8 +2615,8 @@
       <c r="B70" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>4</v>
+      <c r="C70" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21">
@@ -3104,8 +3104,8 @@
       <c r="B116" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>4</v>
+      <c r="C116" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
@@ -3115,8 +3115,8 @@
       <c r="B117" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>4</v>
+      <c r="C117" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BE884E-99A6-4BDE-AF38-85F8795AA2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCBD77C-F95F-489D-9DDA-8E154B44FC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -5016,8 +5016,8 @@
       <c r="B298" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C298" s="4" t="s">
-        <v>4</v>
+      <c r="C298" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">
@@ -5148,8 +5148,8 @@
       <c r="B310" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C310" s="4" t="s">
-        <v>4</v>
+      <c r="C310" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCBD77C-F95F-489D-9DDA-8E154B44FC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC211B33-A03F-4F72-AE92-1E676CE85C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2014,8 +2014,8 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
+      <c r="C13" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -5269,8 +5269,8 @@
       <c r="B321" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C321" s="4" t="s">
-        <v>4</v>
+      <c r="C321" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC211B33-A03F-4F72-AE92-1E676CE85C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA92700-6FDC-4118-8421-D2CFE9B464C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1438,7 +1438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1514,8 +1514,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1534,6 +1540,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1548,7 +1560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1576,6 +1588,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1895,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A471" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2124,8 +2139,8 @@
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
+      <c r="C23" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2223,8 +2238,8 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
+      <c r="C32" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -5082,7 +5097,7 @@
       <c r="B304" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C304" s="4" t="s">
+      <c r="C304" s="13" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA92700-6FDC-4118-8421-D2CFE9B464C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B737BA-A1B9-43C1-B973-B10CC12B85C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1438,7 +1438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1514,14 +1514,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1540,12 +1534,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1560,7 +1548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1588,9 +1576,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1910,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C333" sqref="C333"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2282,8 +2267,8 @@
       <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
+      <c r="C36" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21">
@@ -2304,8 +2289,8 @@
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>4</v>
+      <c r="C38" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">
@@ -2315,8 +2300,8 @@
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
+      <c r="C39" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
@@ -5097,8 +5082,8 @@
       <c r="B304" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C304" s="13" t="s">
-        <v>4</v>
+      <c r="C304" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B737BA-A1B9-43C1-B973-B10CC12B85C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53331A-19C4-4AFA-9642-074C446969DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2113,8 +2113,8 @@
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
+      <c r="C22" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2146,8 +2146,8 @@
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
+      <c r="C25" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53331A-19C4-4AFA-9642-074C446969DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9561256-770B-424E-88FD-C700E32B54F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2179,8 +2179,8 @@
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
+      <c r="C28" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9561256-770B-424E-88FD-C700E32B54F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA32C2-D2F8-4CDC-9A3D-2D8778CCFFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1895,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3739,8 +3733,8 @@
       <c r="B177" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>4</v>
+      <c r="C177" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3750,8 +3744,8 @@
       <c r="B178" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>4</v>
+      <c r="C178" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
@@ -3761,8 +3755,8 @@
       <c r="B179" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>4</v>
+      <c r="C179" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA32C2-D2F8-4CDC-9A3D-2D8778CCFFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299D925F-6F90-4991-8767-243D9A00076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3766,8 +3766,8 @@
       <c r="B180" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>4</v>
+      <c r="C180" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
@@ -3777,8 +3777,8 @@
       <c r="B181" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C181" s="4" t="s">
-        <v>4</v>
+      <c r="C181" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299D925F-6F90-4991-8767-243D9A00076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2E7669-3542-4EB7-AC5F-93FA3628D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t>Yes(only on vscde)</t>
+  </si>
+  <si>
+    <t>iterative</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1528,6 +1531,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1542,7 +1551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1572,6 +1581,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1887,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3726,7 +3736,7 @@
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row r="177" spans="1:4" ht="21">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -3737,7 +3747,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21">
+    <row r="178" spans="1:4" ht="21">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3748,7 +3758,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21">
+    <row r="179" spans="1:4" ht="21">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3759,7 +3769,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21">
+    <row r="180" spans="1:4" ht="21">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3770,7 +3780,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21">
+    <row r="181" spans="1:4" ht="21">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3781,84 +3791,93 @@
         <v>465</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21">
+    <row r="182" spans="1:4" ht="21">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C182" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="21">
+      <c r="C182" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="21">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="21">
+      <c r="C183" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="21">
+      <c r="C184" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="21">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="21">
+      <c r="C185" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="21">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="21">
+      <c r="C186" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="21">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C187" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="21">
+      <c r="C187" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="21">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="21">
+      <c r="C188" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="21">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -3869,7 +3888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21">
+    <row r="190" spans="1:4" ht="21">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -3880,7 +3899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21">
+    <row r="191" spans="1:4" ht="21">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -3891,7 +3910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21">
+    <row r="192" spans="1:4" ht="21">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2E7669-3542-4EB7-AC5F-93FA3628D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CE185-3B16-4919-BE7D-7BE8B926E453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3884,8 +3884,8 @@
       <c r="B189" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>4</v>
+      <c r="C189" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="21">
@@ -3895,8 +3895,8 @@
       <c r="B190" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="4" t="s">
-        <v>4</v>
+      <c r="C190" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="21">
@@ -3906,8 +3906,8 @@
       <c r="B191" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>4</v>
+      <c r="C191" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CE185-3B16-4919-BE7D-7BE8B926E453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B65510A-CF70-4C25-9D6C-6B385D432A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1889,7 +1889,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2350,8 +2350,8 @@
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>4</v>
+      <c r="C44" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2372,8 +2372,8 @@
       <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>4</v>
+      <c r="C46" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
@@ -2438,8 +2438,8 @@
       <c r="B52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
+      <c r="C52" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B65510A-CF70-4C25-9D6C-6B385D432A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309324CD-9CFB-474E-ABB8-A7FA1D0A3577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2383,8 +2383,8 @@
       <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>4</v>
+      <c r="C47" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
@@ -2394,8 +2394,8 @@
       <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>4</v>
+      <c r="C48" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">
@@ -2416,8 +2416,8 @@
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>4</v>
+      <c r="C50" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21">
@@ -2427,8 +2427,8 @@
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
+      <c r="C51" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
@@ -2449,8 +2449,8 @@
       <c r="B53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>4</v>
+      <c r="C53" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309324CD-9CFB-474E-ABB8-A7FA1D0A3577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D7028E-C387-4283-A9E4-99734A1D0BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2954,8 +2954,8 @@
       <c r="B102" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>4</v>
+      <c r="C102" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
@@ -2987,8 +2987,8 @@
       <c r="B105" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>4</v>
+      <c r="C105" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
@@ -3917,8 +3917,8 @@
       <c r="B192" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C192" s="4" t="s">
-        <v>4</v>
+      <c r="C192" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D7028E-C387-4283-A9E4-99734A1D0BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B83DC7D-879F-4C86-A972-3D7CF579C29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3075,8 +3075,8 @@
       <c r="B113" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>4</v>
+      <c r="C113" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="21">

--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS &amp; ALGO\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B83DC7D-879F-4C86-A972-3D7CF579C29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F59CB0-3844-4383-99DC-CB5DFDD7D103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3950,8 +3950,8 @@
       <c r="B195" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C195" s="4" t="s">
-        <v>4</v>
+      <c r="C195" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
@@ -3972,8 +3972,8 @@
       <c r="B197" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C197" s="4" t="s">
-        <v>4</v>
+      <c r="C197" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="21">
@@ -3983,8 +3983,8 @@
       <c r="B198" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>4</v>
+      <c r="C198" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
